--- a/model/Auswertung/mehrspaltiges Layout/Ergebnis_Llama/results.xlsx
+++ b/model/Auswertung/mehrspaltiges Layout/Ergebnis_Llama/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,16 +550,16 @@
         <v>1357</v>
       </c>
       <c r="B2" t="n">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1304</v>
+        <v>0.0133</v>
       </c>
       <c r="F2" t="n">
         <v>177</v>
@@ -571,43 +571,43 @@
         <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0.226</v>
+        <v>0.0791</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1695</v>
+        <v>0.0339</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8374</v>
+        <v>0.9605</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8586</v>
+        <v>0.9827</v>
       </c>
       <c r="P2" t="n">
         <v>0.9605</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.9827</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.9605</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9189000000000001</v>
+        <v>0.9827</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8409</v>
+        <v>0.9142</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.9021</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -620,16 +620,16 @@
         <v>1516</v>
       </c>
       <c r="B3" t="n">
-        <v>1514</v>
+        <v>1483</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>763</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5046</v>
+        <v>0.0369</v>
       </c>
       <c r="F3" t="n">
         <v>214</v>
@@ -641,43 +641,43 @@
         <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4953</v>
+        <v>0.1215</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4673</v>
+        <v>0.1121</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6849</v>
+        <v>0.9434</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.9479</v>
       </c>
       <c r="P3" t="n">
         <v>0.9346</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9479</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7905</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8</v>
+        <v>0.9434</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.9453</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5333</v>
+        <v>0.8295</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -690,16 +690,16 @@
         <v>939</v>
       </c>
       <c r="B4" t="n">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1821</v>
+        <v>0.0106</v>
       </c>
       <c r="F4" t="n">
         <v>127</v>
@@ -711,43 +711,43 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2126</v>
+        <v>0.0472</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1811</v>
+        <v>0.0315</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8425</v>
+        <v>0.984</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8542</v>
+        <v>0.9919</v>
       </c>
       <c r="P4" t="n">
         <v>0.9685</v>
       </c>
       <c r="Q4" t="n">
+        <v>0.9762</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9762</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.984</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.9011</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.9145</v>
-      </c>
       <c r="T4" t="n">
-        <v>0.8825</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7042</v>
+        <v>0.8501</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -757,241 +757,241 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1876</v>
+        <v>740</v>
       </c>
       <c r="B5" t="n">
-        <v>1841</v>
+        <v>730</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.064</v>
+        <v>0.0203</v>
       </c>
       <c r="F5" t="n">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1738</v>
+        <v>0.0619</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09180000000000001</v>
+        <v>0.0206</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8938</v>
+        <v>0.9789</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9316</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9377</v>
+        <v>0.9588</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9761</v>
+        <v>0.9789</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9152</v>
+        <v>0.9688</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9533</v>
+        <v>0.9893999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9404</v>
+        <v>0.9681</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6289</v>
+        <v>0.8964</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>869</v>
+        <v>1876</v>
       </c>
       <c r="B6" t="n">
-        <v>869</v>
+        <v>1746</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D6" t="n">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2106</v>
+        <v>0.073</v>
       </c>
       <c r="F6" t="n">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="G6" t="n">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1554</v>
+        <v>0.1049</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1419</v>
+        <v>0.0328</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8698</v>
+        <v>0.9565</v>
       </c>
       <c r="O6" t="n">
-        <v>0.875</v>
+        <v>0.9931</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9932</v>
+        <v>0.9377</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0.9728</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9274</v>
+        <v>0.947</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9333</v>
+        <v>0.9828</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9424</v>
+        <v>0.9587</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7533</v>
+        <v>0.6369</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1637</v>
+        <v>869</v>
       </c>
       <c r="B7" t="n">
-        <v>1258</v>
+        <v>868</v>
       </c>
       <c r="C7" t="n">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2358</v>
+        <v>0.0138</v>
       </c>
       <c r="F7" t="n">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="G7" t="n">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="H7" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3784</v>
+        <v>0.0135</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2934</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8744</v>
+        <v>0.9932</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9216</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7259</v>
+        <v>0.9932</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7581</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7932</v>
+        <v>0.9932</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8319</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8169</v>
+        <v>0.9933999999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5449000000000001</v>
+        <v>0.8953</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>766</v>
+        <v>1637</v>
       </c>
       <c r="B8" t="n">
-        <v>727</v>
+        <v>1089</v>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>548</v>
       </c>
       <c r="D8" t="n">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2428</v>
+        <v>0.3366</v>
       </c>
       <c r="F8" t="n">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="G8" t="n">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1000,36 +1000,106 @@
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3876</v>
+        <v>0.2934</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3256</v>
+        <v>0.2625</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7883</v>
+        <v>0.9741</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.9947</v>
       </c>
       <c r="P8" t="n">
+        <v>0.7259</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.7373</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8319</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.8468</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.8092</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5009</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>766</v>
+      </c>
+      <c r="B9" t="n">
+        <v>693</v>
+      </c>
+      <c r="C9" t="n">
+        <v>73</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1057</v>
+      </c>
+      <c r="F9" t="n">
+        <v>129</v>
+      </c>
+      <c r="G9" t="n">
+        <v>108</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1783</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1473</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9818</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.8372000000000001</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.8372000000000001</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.6955</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.5206</v>
-      </c>
-      <c r="V8" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>0.8504</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.9038</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9191</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8784</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5263</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
